--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/67/word_level_predictions_67.xlsx
@@ -2114,208 +2114,208 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>8</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="I224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>18</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>9</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>18</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>10</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>18</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/67/word_level_predictions_67.xlsx
@@ -2114,208 +2114,208 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>18</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>18</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>9</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>18</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>10</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>18</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>11</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
